--- a/ApolloQA/Data/RatingManual/SC/VA00061.FleetSize_InsuranceScoreTierFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00061.FleetSize_InsuranceScoreTierFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00061.FleetSize_InsuranceScoreTierFactors" sheetId="1" r:id="R178b4e2b614d4980"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00061.FleetSize_InsuranceScoreTierFactors" sheetId="1" r:id="Rdd9f3bc5c0fd4056"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -802,6 +802,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>AB16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>AB17</x:v>
       </x:c>
       <x:c t="str">
@@ -1572,6 +1586,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>AB12</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>AB13</x:v>
       </x:c>
       <x:c t="str">
@@ -2342,6 +2370,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>AB08</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>AB09</x:v>
       </x:c>
       <x:c t="str">
@@ -3112,6 +3154,20 @@
         <x:v>15</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>AB04</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>AB05</x:v>
       </x:c>
       <x:c t="str">
@@ -3869,6 +3925,20 @@
       </x:c>
       <x:c t="str">
         <x:v>ABNH</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>ABTF</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
